--- a/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Salt_SC.xlsx
+++ b/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Salt_SC.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaskar/Library/CloudStorage/Box-Box/Post_Doc_Goteborg/P_drf_Syntox_20210429/GIT_SUB/Mixtox_transcriptomics/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B011BBF0-C2FE-404B-9834-3D1F0907250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" activeTab="1" xr2:uid="{27D1AF11-3B39-224A-99B6-0B67B8DE6443}"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="SaltvsCtrl" sheetId="1" r:id="rId1"/>
     <sheet name="SaltvsCtrl_wo_GRG" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -2345,11 +2342,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2390,8 +2403,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2401,7 +2420,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2460,7 +2485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2512,7 +2537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2706,52 +2731,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0483F-0D86-7F45-8559-5180D9AC959F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2828,7 +2854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2851,7 +2877,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2874,7 +2900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +2923,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2920,7 +2946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2943,7 +2969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2989,7 +3015,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3012,7 +3038,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3035,7 +3061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3058,7 +3084,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3081,7 +3107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3127,7 +3153,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3173,7 +3199,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3196,7 +3222,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -3219,7 +3245,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3242,7 +3268,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3265,7 +3291,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3288,7 +3314,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3311,7 +3337,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -3334,7 +3360,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3357,7 +3383,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3380,7 +3406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3403,7 +3429,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3426,7 +3452,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3449,7 +3475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3472,7 +3498,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3495,7 +3521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3518,7 +3544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3541,7 +3567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3564,7 +3590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -3587,7 +3613,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -3610,7 +3636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -3633,7 +3659,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3656,7 +3682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -3679,7 +3705,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3702,7 +3728,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3725,7 +3751,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -3748,7 +3774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -3771,7 +3797,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -3794,7 +3820,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3817,7 +3843,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -3840,7 +3866,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3863,7 +3889,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3886,7 +3912,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3909,7 +3935,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3932,7 +3958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3955,7 +3981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3978,7 +4004,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -4001,7 +4027,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -4024,7 +4050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -4047,7 +4073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -4070,7 +4096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -4093,17 +4119,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="D73" t="s">
         <v>9</v>
       </c>
@@ -4134,7 +4160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>205</v>
       </c>
@@ -4157,7 +4183,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -4180,7 +4206,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -4203,7 +4229,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -4226,7 +4252,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>214</v>
       </c>
@@ -4249,7 +4275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>217</v>
       </c>
@@ -4272,7 +4298,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -4295,7 +4321,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -4318,7 +4344,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -4341,7 +4367,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>225</v>
       </c>
@@ -4364,7 +4390,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>227</v>
       </c>
@@ -4387,7 +4413,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>229</v>
       </c>
@@ -4410,7 +4436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>231</v>
       </c>
@@ -4433,7 +4459,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -4456,7 +4482,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>235</v>
       </c>
@@ -4479,17 +4505,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +4538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="D94" t="s">
         <v>9</v>
       </c>
@@ -4520,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -4543,7 +4569,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -4566,7 +4592,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>260</v>
       </c>
@@ -4589,7 +4615,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -4612,7 +4638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -4635,7 +4661,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>265</v>
       </c>
@@ -4658,7 +4684,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>266</v>
       </c>
@@ -4681,7 +4707,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>268</v>
       </c>
@@ -4704,7 +4730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -4727,22 +4753,22 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4765,7 +4791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="D112" t="s">
         <v>9</v>
       </c>
@@ -4773,7 +4799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -4796,7 +4822,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -4819,7 +4845,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4868,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -4865,7 +4891,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -4888,7 +4914,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -4911,7 +4937,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -4934,7 +4960,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -4957,7 +4983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -4980,7 +5006,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -5003,7 +5029,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -5026,7 +5052,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -5049,7 +5075,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>63</v>
       </c>
@@ -5072,7 +5098,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -5095,7 +5121,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -5118,7 +5144,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5141,7 +5167,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -5164,7 +5190,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -5187,7 +5213,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -5210,7 +5236,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -5233,7 +5259,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -5256,7 +5282,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>74</v>
       </c>
@@ -5279,7 +5305,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>101</v>
       </c>
@@ -5302,7 +5328,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -5325,7 +5351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -5348,7 +5374,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -5371,7 +5397,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -5394,7 +5420,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -5417,7 +5443,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>87</v>
       </c>
@@ -5440,7 +5466,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -5463,7 +5489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5486,7 +5512,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5509,7 +5535,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -5532,7 +5558,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>105</v>
       </c>
@@ -5555,7 +5581,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -5578,7 +5604,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>438</v>
       </c>
@@ -5601,7 +5627,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>327</v>
       </c>
@@ -5624,7 +5650,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>313</v>
       </c>
@@ -5647,7 +5673,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -5670,7 +5696,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>444</v>
       </c>
@@ -5693,7 +5719,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>447</v>
       </c>
@@ -5716,7 +5742,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>450</v>
       </c>
@@ -5739,7 +5765,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>453</v>
       </c>
@@ -5762,7 +5788,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -5785,7 +5811,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>458</v>
       </c>
@@ -5808,17 +5834,17 @@
         <v>503</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -5841,7 +5867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="D163" t="s">
         <v>9</v>
       </c>
@@ -5849,7 +5875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>205</v>
       </c>
@@ -5872,7 +5898,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>214</v>
       </c>
@@ -5895,7 +5921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -5918,7 +5944,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>210</v>
       </c>
@@ -5941,7 +5967,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>505</v>
       </c>
@@ -5964,17 +5990,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -5997,7 +6023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="D174" t="s">
         <v>9</v>
       </c>
@@ -6005,7 +6031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>265</v>
       </c>
@@ -6028,7 +6054,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -6051,22 +6077,22 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -6089,7 +6115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="D185" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -6120,7 +6146,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -6143,7 +6169,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>44</v>
       </c>
@@ -6166,7 +6192,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -6189,7 +6215,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>52</v>
       </c>
@@ -6212,7 +6238,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>28</v>
       </c>
@@ -6235,7 +6261,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>92</v>
       </c>
@@ -6258,7 +6284,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>110</v>
       </c>
@@ -6281,7 +6307,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>583</v>
       </c>
@@ -6304,7 +6330,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>66</v>
       </c>
@@ -6327,7 +6353,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>68</v>
       </c>
@@ -6350,7 +6376,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>585</v>
       </c>
@@ -6373,7 +6399,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -6396,7 +6422,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>81</v>
       </c>
@@ -6419,7 +6445,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>586</v>
       </c>
@@ -6442,7 +6468,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>588</v>
       </c>
@@ -6465,7 +6491,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>590</v>
       </c>
@@ -6488,7 +6514,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>593</v>
       </c>
@@ -6511,7 +6537,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>596</v>
       </c>
@@ -6534,7 +6560,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>131</v>
       </c>
@@ -6557,7 +6583,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>598</v>
       </c>
@@ -6580,7 +6606,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>600</v>
       </c>
@@ -6603,7 +6629,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>602</v>
       </c>
@@ -6626,7 +6652,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>603</v>
       </c>
@@ -6649,7 +6675,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>605</v>
       </c>
@@ -6672,7 +6698,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>607</v>
       </c>
@@ -6695,7 +6721,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>609</v>
       </c>
@@ -6718,7 +6744,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>610</v>
       </c>
@@ -6741,7 +6767,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>612</v>
       </c>
@@ -6764,7 +6790,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>614</v>
       </c>
@@ -6787,7 +6813,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>616</v>
       </c>
@@ -6810,7 +6836,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>618</v>
       </c>
@@ -6833,7 +6859,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>95</v>
       </c>
@@ -6856,7 +6882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>621</v>
       </c>
@@ -6879,7 +6905,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>623</v>
       </c>
@@ -6902,7 +6928,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>287</v>
       </c>
@@ -6925,7 +6951,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>627</v>
       </c>
@@ -6948,7 +6974,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>628</v>
       </c>
@@ -6971,17 +6997,17 @@
         <v>665</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -7004,7 +7030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="D229" t="s">
         <v>9</v>
       </c>
@@ -7012,7 +7038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -7035,7 +7061,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>667</v>
       </c>
@@ -7058,7 +7084,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>223</v>
       </c>
@@ -7081,7 +7107,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>208</v>
       </c>
@@ -7104,7 +7130,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -7127,7 +7153,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>672</v>
       </c>
@@ -7150,17 +7176,17 @@
         <v>673</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="D241" t="s">
         <v>9</v>
       </c>
@@ -7191,7 +7217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -7214,7 +7240,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>260</v>
       </c>
@@ -7237,7 +7263,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -7260,7 +7286,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>263</v>
       </c>
@@ -7283,7 +7309,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>679</v>
       </c>
@@ -7306,7 +7332,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>682</v>
       </c>
@@ -7329,7 +7355,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>684</v>
       </c>
@@ -7352,7 +7378,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>287</v>
       </c>
@@ -7375,7 +7401,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>411</v>
       </c>
@@ -7398,7 +7424,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>271</v>
       </c>
@@ -7421,7 +7447,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>686</v>
       </c>
@@ -7444,7 +7470,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -7469,50 +7495,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B814F-967D-9F48-82FD-5395A7387A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView topLeftCell="A62" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7535,7 +7566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -7543,7 +7574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -7566,7 +7597,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -7589,7 +7620,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>287</v>
       </c>
@@ -7612,7 +7643,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -7635,7 +7666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -7658,7 +7689,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -7681,7 +7712,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -7704,7 +7735,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -7727,7 +7758,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -7750,7 +7781,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -7773,7 +7804,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7796,7 +7827,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -7819,7 +7850,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -7842,7 +7873,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -7865,7 +7896,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -7888,7 +7919,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7911,7 +7942,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -7934,7 +7965,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -7957,7 +7988,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>308</v>
       </c>
@@ -7980,7 +8011,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -8003,7 +8034,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -8026,7 +8057,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -8049,7 +8080,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -8072,7 +8103,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -8095,7 +8126,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -8118,7 +8149,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8141,7 +8172,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -8164,7 +8195,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -8187,7 +8218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -8210,7 +8241,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8233,7 +8264,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -8256,7 +8287,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -8279,7 +8310,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -8302,7 +8333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>327</v>
       </c>
@@ -8325,7 +8356,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -8348,7 +8379,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -8371,7 +8402,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>331</v>
       </c>
@@ -8394,7 +8425,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -8417,17 +8448,17 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -8450,7 +8481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="D53" t="s">
         <v>9</v>
       </c>
@@ -8458,7 +8489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>287</v>
       </c>
@@ -8481,7 +8512,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -8504,7 +8535,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -8527,7 +8558,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -8550,7 +8581,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>220</v>
       </c>
@@ -8573,7 +8604,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -8596,7 +8627,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -8619,7 +8650,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -8642,7 +8673,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>211</v>
       </c>
@@ -8665,7 +8696,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -8688,7 +8719,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>386</v>
       </c>
@@ -8711,17 +8742,17 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -8744,7 +8775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="D70" t="s">
         <v>9</v>
       </c>
@@ -8752,7 +8783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>406</v>
       </c>
@@ -8775,7 +8806,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>287</v>
       </c>
@@ -8798,7 +8829,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -8821,7 +8852,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -8844,7 +8875,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>271</v>
       </c>
@@ -8867,7 +8898,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -8890,22 +8921,22 @@
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -8928,7 +8959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="D84" t="s">
         <v>9</v>
       </c>
@@ -8936,7 +8967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -8959,7 +8990,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -8982,7 +9013,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -9005,7 +9036,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -9028,7 +9059,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -9051,7 +9082,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -9074,7 +9105,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -9097,7 +9128,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -9120,7 +9151,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>313</v>
       </c>
@@ -9143,7 +9174,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -9166,7 +9197,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -9189,7 +9220,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -9212,7 +9243,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -9235,7 +9266,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -9258,7 +9289,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>327</v>
       </c>
@@ -9281,7 +9312,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -9304,7 +9335,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>442</v>
       </c>
@@ -9327,7 +9358,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -9350,7 +9381,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -9373,7 +9404,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -9396,7 +9427,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -9419,7 +9450,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -9442,7 +9473,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -9465,7 +9496,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -9488,7 +9519,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9511,7 +9542,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>82</v>
       </c>
@@ -9534,7 +9565,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -9557,7 +9588,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>534</v>
       </c>
@@ -9580,7 +9611,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>536</v>
       </c>
@@ -9603,7 +9634,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -9626,17 +9657,17 @@
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -9659,7 +9690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="D121" t="s">
         <v>9</v>
       </c>
@@ -9667,7 +9698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>205</v>
       </c>
@@ -9690,7 +9721,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>505</v>
       </c>
@@ -9713,7 +9744,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>210</v>
       </c>
@@ -9736,7 +9767,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>287</v>
       </c>
@@ -9759,17 +9790,17 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -9792,7 +9823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="D132" t="s">
         <v>9</v>
       </c>
@@ -9800,7 +9831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>406</v>
       </c>
@@ -9823,7 +9854,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>287</v>
       </c>
@@ -9846,22 +9877,22 @@
         <v>578</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -9884,7 +9915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="D142" t="s">
         <v>9</v>
       </c>
@@ -9892,7 +9923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -9915,7 +9946,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -9938,7 +9969,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>44</v>
       </c>
@@ -9961,7 +9992,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -9984,7 +10015,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -10007,7 +10038,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -10030,7 +10061,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>110</v>
       </c>
@@ -10053,7 +10084,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -10076,7 +10107,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>585</v>
       </c>
@@ -10099,7 +10130,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>590</v>
       </c>
@@ -10122,7 +10153,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>588</v>
       </c>
@@ -10145,7 +10176,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>593</v>
       </c>
@@ -10168,7 +10199,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>596</v>
       </c>
@@ -10191,7 +10222,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>282</v>
       </c>
@@ -10214,7 +10245,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>586</v>
       </c>
@@ -10237,7 +10268,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>583</v>
       </c>
@@ -10260,7 +10291,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>605</v>
       </c>
@@ -10283,7 +10314,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -10306,7 +10337,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>68</v>
       </c>
@@ -10329,7 +10360,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>614</v>
       </c>
@@ -10352,7 +10383,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>609</v>
       </c>
@@ -10375,7 +10406,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -10398,7 +10429,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -10421,7 +10452,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>287</v>
       </c>
@@ -10444,7 +10475,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>131</v>
       </c>
@@ -10467,7 +10498,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>600</v>
       </c>
@@ -10490,7 +10521,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>602</v>
       </c>
@@ -10513,7 +10544,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>598</v>
       </c>
@@ -10536,7 +10567,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>603</v>
       </c>
@@ -10559,17 +10590,17 @@
         <v>756</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -10592,7 +10623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="D177" t="s">
         <v>9</v>
       </c>
@@ -10600,7 +10631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>287</v>
       </c>
@@ -10623,17 +10654,17 @@
         <v>758</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -10656,7 +10687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="D184" t="s">
         <v>9</v>
       </c>
@@ -10664,7 +10695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>260</v>
       </c>
@@ -10687,7 +10718,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>262</v>
       </c>
@@ -10710,7 +10741,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>263</v>
       </c>
@@ -10733,7 +10764,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>254</v>
       </c>
@@ -10756,7 +10787,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>406</v>
       </c>
@@ -10779,7 +10810,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>287</v>
       </c>
@@ -10802,7 +10833,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -10825,7 +10856,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>271</v>
       </c>
@@ -10848,7 +10879,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>414</v>
       </c>
@@ -10873,5 +10904,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Salt_SC.xlsx
+++ b/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Salt_SC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://risecloud-my.sharepoint.com/personal/vaskar_mukherjee_processum_se/Documents/Post_Doc_Goteborg/P_drf_Syntox_20210429/GIT_SUB/Mixtox_transcriptomics/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_02FA605E8337CD6604177F9EDE3D38F82B36FA01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14252343-CEEC-4D1A-9AEC-DD8F0F8488B4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_02FA605E8337CD6604177F9EDE3D38F82B36FA01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1C28F7-FAF8-4669-8EE3-8254843C4FC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2495,7 +2495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2547,7 +2547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2759,7 +2759,8 @@
   <cols>
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -8194,8 +8195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8203,7 +8204,7 @@
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
